--- a/Docs/AR/results_Correction.xlsx
+++ b/Docs/AR/results_Correction.xlsx
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,13 +93,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +429,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,17 +462,27 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>61.9</v>
+      </c>
+      <c r="E4">
+        <v>80.95</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -460,6 +492,9 @@
       </c>
       <c r="E5">
         <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -473,10 +508,13 @@
         <v>14.705882352941201</v>
       </c>
       <c r="D6">
-        <v>10.8108108108108</v>
+        <v>16.2162162162162</v>
       </c>
       <c r="E6">
         <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -493,7 +531,10 @@
         <v>40</v>
       </c>
       <c r="E7">
-        <v>92.307692307692307</v>
+        <v>100</v>
+      </c>
+      <c r="F7" s="4">
+        <v>40</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -540,7 +581,10 @@
         <v>24.390243902439</v>
       </c>
       <c r="E8">
-        <v>72.5</v>
+        <v>75.61</v>
+      </c>
+      <c r="F8" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -559,6 +603,9 @@
       <c r="E9">
         <v>81.690140845070403</v>
       </c>
+      <c r="F9" s="3">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -568,13 +615,16 @@
         <v>39.0625</v>
       </c>
       <c r="C10">
-        <v>70.491803278688494</v>
+        <v>87.3</v>
       </c>
       <c r="D10">
         <v>62.5</v>
       </c>
       <c r="E10">
-        <v>76.190476190476204</v>
+        <v>81.81</v>
+      </c>
+      <c r="F10" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -585,13 +635,16 @@
         <v>22.2222222222222</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>52.5</v>
       </c>
       <c r="D11">
         <v>38.095238095238102</v>
       </c>
       <c r="E11">
-        <v>51.25</v>
+        <v>73.5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -608,7 +661,10 @@
         <v>34.848484848484901</v>
       </c>
       <c r="E12">
-        <v>82.191780821917803</v>
+        <v>84.191780821917803</v>
+      </c>
+      <c r="F12" s="4">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -627,8 +683,11 @@
       <c r="E13">
         <v>85.074626865671704</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -636,13 +695,16 @@
         <v>70.083102493074804</v>
       </c>
       <c r="C14">
+        <v>97.8</v>
+      </c>
+      <c r="D14">
         <v>70.083102493074804</v>
       </c>
-      <c r="D14">
-        <v>40.677966101694899</v>
-      </c>
       <c r="E14">
-        <v>97.527472527472497</v>
+        <v>97.8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -650,20 +712,20 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <f>AVERAGE(B4:B14)</f>
-        <v>33.217689921303716</v>
+        <f>SUMPRODUCT(F4:F14,B4:B14)/SUM(F4:F14)</f>
+        <v>45.194141866846898</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:E18" si="0">AVERAGE(C4:C14)</f>
-        <v>56.230515527415037</v>
+        <f>SUMPRODUCT(F4:F14,C4:C14)/SUM(F4:F14)</f>
+        <v>79.69748320639296</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>44.188896029503347</v>
+        <f>SUMPRODUCT(F4:F14,D4:D14)/SUM(F4:F14)</f>
+        <v>56.05958770594561</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>83.873218955830083</v>
+        <f>SUMPRODUCT(F4:F14,E4:E14)/SUM(F4:F14)</f>
+        <v>89.32088011190784</v>
       </c>
     </row>
   </sheetData>
